--- a/teaching/traditional_assets/database/data/kenya/kenya_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/kenya/kenya_insurance_life.xlsx
@@ -591,28 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.00912</v>
-      </c>
-      <c r="E2">
-        <v>-0.286</v>
+        <v>0.0445</v>
       </c>
       <c r="G2">
-        <v>-0.2285353535353535</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="H2">
-        <v>-0.2285353535353535</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="I2">
-        <v>0.1180953727488996</v>
+        <v>0.01501877346683354</v>
       </c>
       <c r="J2">
-        <v>0.05904768637444982</v>
+        <v>0.01501877346683354</v>
       </c>
       <c r="K2">
-        <v>1.53</v>
+        <v>-6.06</v>
       </c>
       <c r="L2">
-        <v>0.01931818181818182</v>
+        <v>-0.07584480600750938</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -621,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,79 +627,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="V2">
-        <v>0.6680327868852459</v>
+        <v>0.95906432748538</v>
       </c>
       <c r="W2">
-        <v>0.07149532710280375</v>
+        <v>-0.315625</v>
       </c>
       <c r="X2">
-        <v>0.235767651695299</v>
+        <v>0.2165775850242506</v>
       </c>
       <c r="Y2">
-        <v>-0.1642723245924953</v>
+        <v>-0.5322025850242506</v>
       </c>
       <c r="Z2">
-        <v>3.315995201436702</v>
+        <v>2.15945945945946</v>
       </c>
       <c r="AA2">
-        <v>0.195801844673615</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="AB2">
-        <v>0.1266276089999216</v>
+        <v>0.1118818593952615</v>
       </c>
       <c r="AC2">
-        <v>0.06917423567369341</v>
+        <v>-0.07944942696282904</v>
       </c>
       <c r="AD2">
-        <v>34.1</v>
+        <v>27.8</v>
       </c>
       <c r="AE2">
-        <v>3.684232391435747</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>37.78423239143575</v>
+        <v>27.8</v>
       </c>
       <c r="AG2">
-        <v>21.48423239143575</v>
+        <v>11.4</v>
       </c>
       <c r="AH2">
-        <v>0.6076175734323214</v>
+        <v>0.6191536748329621</v>
       </c>
       <c r="AI2">
-        <v>0.6341313947491016</v>
+        <v>0.6435185185185185</v>
       </c>
       <c r="AJ2">
-        <v>0.4682269108951197</v>
+        <v>0.4</v>
       </c>
       <c r="AK2">
-        <v>0.4963523944965843</v>
+        <v>0.4253731343283582</v>
       </c>
       <c r="AL2">
-        <v>2.99</v>
+        <v>5.13</v>
       </c>
       <c r="AM2">
-        <v>2.99</v>
+        <v>5.13</v>
       </c>
       <c r="AN2">
-        <v>3.235294117647059</v>
+        <v>12.69406392694064</v>
       </c>
       <c r="AO2">
-        <v>3.033444816053512</v>
+        <v>0.2339181286549707</v>
       </c>
       <c r="AP2">
-        <v>2.038352219301305</v>
+        <v>5.205479452054796</v>
       </c>
       <c r="AQ2">
-        <v>3.033444816053512</v>
+        <v>0.2339181286549707</v>
       </c>
     </row>
     <row r="3">
@@ -722,28 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.00912</v>
-      </c>
-      <c r="E3">
-        <v>-0.286</v>
+        <v>0.0445</v>
       </c>
       <c r="G3">
-        <v>-0.2285353535353535</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="H3">
-        <v>-0.2285353535353535</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="I3">
-        <v>0.1180953727488996</v>
+        <v>0.01501877346683354</v>
       </c>
       <c r="J3">
-        <v>0.05904768637444982</v>
+        <v>0.01501877346683354</v>
       </c>
       <c r="K3">
-        <v>1.53</v>
+        <v>-6.06</v>
       </c>
       <c r="L3">
-        <v>0.01931818181818182</v>
+        <v>-0.07584480600750938</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -752,7 +746,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -761,79 +755,79 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="V3">
-        <v>0.6680327868852459</v>
+        <v>0.95906432748538</v>
       </c>
       <c r="W3">
-        <v>0.07149532710280375</v>
+        <v>-0.315625</v>
       </c>
       <c r="X3">
-        <v>0.235767651695299</v>
+        <v>0.2165775850242506</v>
       </c>
       <c r="Y3">
-        <v>-0.1642723245924953</v>
+        <v>-0.5322025850242506</v>
       </c>
       <c r="Z3">
-        <v>3.315995201436702</v>
+        <v>2.15945945945946</v>
       </c>
       <c r="AA3">
-        <v>0.195801844673615</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="AB3">
-        <v>0.1266276089999216</v>
+        <v>0.1118818593952615</v>
       </c>
       <c r="AC3">
-        <v>0.06917423567369341</v>
+        <v>-0.07944942696282904</v>
       </c>
       <c r="AD3">
-        <v>34.1</v>
+        <v>27.8</v>
       </c>
       <c r="AE3">
-        <v>3.684232391435747</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>37.78423239143575</v>
+        <v>27.8</v>
       </c>
       <c r="AG3">
-        <v>21.48423239143575</v>
+        <v>11.4</v>
       </c>
       <c r="AH3">
-        <v>0.6076175734323214</v>
+        <v>0.6191536748329621</v>
       </c>
       <c r="AI3">
-        <v>0.6341313947491016</v>
+        <v>0.6435185185185185</v>
       </c>
       <c r="AJ3">
-        <v>0.4682269108951197</v>
+        <v>0.4</v>
       </c>
       <c r="AK3">
-        <v>0.4963523944965843</v>
+        <v>0.4253731343283582</v>
       </c>
       <c r="AL3">
-        <v>2.99</v>
+        <v>5.13</v>
       </c>
       <c r="AM3">
-        <v>2.99</v>
+        <v>5.13</v>
       </c>
       <c r="AN3">
-        <v>3.235294117647059</v>
+        <v>12.69406392694064</v>
       </c>
       <c r="AO3">
-        <v>3.033444816053512</v>
+        <v>0.2339181286549707</v>
       </c>
       <c r="AP3">
-        <v>2.038352219301305</v>
+        <v>5.205479452054796</v>
       </c>
       <c r="AQ3">
-        <v>3.033444816053512</v>
+        <v>0.2339181286549707</v>
       </c>
     </row>
   </sheetData>
